--- a/src/demoWorksheet/input/riksbankens_kurser.xlsx
+++ b/src/demoWorksheet/input/riksbankens_kurser.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -24,6 +24,9 @@
   </si>
   <si>
     <t>SEKCADPMI</t>
+  </si>
+  <si>
+    <t>SEKDKKPMI</t>
   </si>
   <si>
     <t>2023-09-01</t>
@@ -131,7 +134,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -150,10 +153,13 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
         <v>11.8777</v>
@@ -164,10 +170,13 @@
       <c r="D2" t="n">
         <v>8.1079</v>
       </c>
+      <c r="E2" t="n">
+        <v>1.5937</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
         <v>11.8845</v>
@@ -178,10 +187,13 @@
       <c r="D3" t="n">
         <v>8.0941</v>
       </c>
+      <c r="E3" t="n">
+        <v>1.5948</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
         <v>11.935</v>
@@ -192,10 +204,13 @@
       <c r="D4" t="n">
         <v>8.1261</v>
       </c>
+      <c r="E4" t="n">
+        <v>1.6014</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
         <v>11.9114</v>
@@ -206,10 +221,13 @@
       <c r="D5" t="n">
         <v>8.127</v>
       </c>
+      <c r="E5" t="n">
+        <v>1.5979</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
         <v>11.9139</v>
@@ -220,10 +238,13 @@
       <c r="D6" t="n">
         <v>8.1509</v>
       </c>
+      <c r="E6" t="n">
+        <v>1.5977</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
         <v>11.9014</v>
@@ -234,10 +255,13 @@
       <c r="D7" t="n">
         <v>8.1295</v>
       </c>
+      <c r="E7" t="n">
+        <v>1.5956</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n">
         <v>11.8742</v>
@@ -248,10 +272,13 @@
       <c r="D8" t="n">
         <v>8.1424</v>
       </c>
+      <c r="E8" t="n">
+        <v>1.5924</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n">
         <v>11.9008</v>
@@ -262,10 +289,13 @@
       <c r="D9" t="n">
         <v>8.1666</v>
       </c>
+      <c r="E9" t="n">
+        <v>1.5957</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n">
         <v>11.9171</v>
@@ -276,10 +306,13 @@
       <c r="D10" t="n">
         <v>8.1812</v>
       </c>
+      <c r="E10" t="n">
+        <v>1.5975</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n">
         <v>11.9408</v>
@@ -290,10 +323,13 @@
       <c r="D11" t="n">
         <v>8.2152</v>
       </c>
+      <c r="E11" t="n">
+        <v>1.6007</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n">
         <v>11.8959</v>
@@ -304,10 +340,13 @@
       <c r="D12" t="n">
         <v>8.2599</v>
       </c>
+      <c r="E12" t="n">
+        <v>1.5954</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n">
         <v>11.9346</v>
@@ -318,10 +357,13 @@
       <c r="D13" t="n">
         <v>8.2913</v>
       </c>
+      <c r="E13" t="n">
+        <v>1.6004</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n">
         <v>11.894</v>
@@ -332,10 +374,13 @@
       <c r="D14" t="n">
         <v>8.2693</v>
       </c>
+      <c r="E14" t="n">
+        <v>1.5957</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" t="n">
         <v>11.919</v>
@@ -346,10 +391,13 @@
       <c r="D15" t="n">
         <v>8.294</v>
       </c>
+      <c r="E15" t="n">
+        <v>1.5991</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" t="n">
         <v>11.887</v>
@@ -360,10 +408,13 @@
       <c r="D16" t="n">
         <v>8.2706</v>
       </c>
+      <c r="E16" t="n">
+        <v>1.595</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" t="n">
         <v>11.8959</v>
@@ -374,10 +425,13 @@
       <c r="D17" t="n">
         <v>8.2979</v>
       </c>
+      <c r="E17" t="n">
+        <v>1.5955</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" t="n">
         <v>11.8211</v>
@@ -388,10 +442,13 @@
       <c r="D18" t="n">
         <v>8.2406</v>
       </c>
+      <c r="E18" t="n">
+        <v>1.5853</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n">
         <v>11.736</v>
@@ -402,10 +459,13 @@
       <c r="D19" t="n">
         <v>8.2173</v>
       </c>
+      <c r="E19" t="n">
+        <v>1.5737</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n">
         <v>11.6391</v>
@@ -416,10 +476,13 @@
       <c r="D20" t="n">
         <v>8.1439</v>
       </c>
+      <c r="E20" t="n">
+        <v>1.561</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="n">
         <v>11.5883</v>
@@ -430,10 +493,13 @@
       <c r="D21" t="n">
         <v>8.1666</v>
       </c>
+      <c r="E21" t="n">
+        <v>1.5542</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="n">
         <v>11.4923</v>
@@ -443,6 +509,9 @@
       </c>
       <c r="D22" t="n">
         <v>8.059</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.5412</v>
       </c>
     </row>
   </sheetData>
